--- a/CompareResults/xmlCompare_output_2023-06-21_12-33-09.xlsx
+++ b/CompareResults/xmlCompare_output_2023-06-21_12-33-09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msoit-my.sharepoint.com/personal/akant_malviya_morneaushepell_com/Documents/Documents/4. Improvement Ideas &amp; Tools/XML Compare Tool/XMLFileCompare/FileCompare/CompareResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_A6744C755F48EA3FE4377C76435DCE3A67451F3E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_A6744C755F48EA3FE4377C76435DCE3A67451F3E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DD04248-F8EB-48C1-BAA4-C14BCCE8712C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -805,6 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1109,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1178,13 +1179,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3"/>
@@ -1208,13 +1209,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="3"/>
